--- a/Team-Data/2012-13/1-14-2012-13.xlsx
+++ b/Team-Data/2012-13/1-14-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,115 +733,115 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.583</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="J2" t="n">
         <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.452</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
       <c r="O2" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P2" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.704</v>
+        <v>0.702</v>
       </c>
       <c r="R2" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="V2" t="n">
         <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -792,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -807,16 +874,16 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.541</v>
+        <v>0.528</v>
       </c>
       <c r="H3" t="n">
         <v>48.8</v>
@@ -869,16 +936,16 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O3" t="n">
         <v>16.1</v>
@@ -887,28 +954,28 @@
         <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T3" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V3" t="n">
         <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
         <v>4.9</v>
@@ -920,28 +987,28 @@
         <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -959,7 +1026,7 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
@@ -968,19 +1035,19 @@
         <v>7</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>24</v>
@@ -998,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>10</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1135,10 +1202,10 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1147,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>15</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1180,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.243</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,10 +1297,10 @@
         <v>35.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,13 +1309,13 @@
         <v>16.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
         <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
@@ -1257,13 +1324,13 @@
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T5" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V5" t="n">
         <v>14.2</v>
@@ -1284,13 +1351,13 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1308,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,25 +1387,25 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>18</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1356,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.583</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M6" t="n">
         <v>12.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="U6" t="n">
         <v>22.9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1508,37 +1575,37 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
         <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
       </c>
       <c r="AV6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX6" t="n">
         <v>18</v>
       </c>
-      <c r="AW6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>14</v>
-      </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
         <v>11</v>
@@ -1547,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -1576,67 +1643,67 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.225</v>
+        <v>0.231</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="J7" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="L7" t="n">
         <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P7" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
         <v>0.744</v>
       </c>
       <c r="R7" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S7" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="T7" t="n">
         <v>41.6</v>
       </c>
       <c r="U7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V7" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W7" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y7" t="n">
         <v>7</v>
@@ -1645,16 +1712,16 @@
         <v>22.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>-5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1666,10 +1733,10 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
         <v>25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1678,16 +1745,16 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM7" t="n">
         <v>9</v>
       </c>
-      <c r="AM7" t="n">
-        <v>10</v>
-      </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,10 +1790,10 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -1758,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.41</v>
+        <v>0.395</v>
       </c>
       <c r="H8" t="n">
         <v>49.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
       <c r="L8" t="n">
         <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
       <c r="R8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="V8" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W8" t="n">
         <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z8" t="n">
         <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>-3.2</v>
+        <v>-3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
@@ -1851,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
@@ -1875,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1884,34 +1951,34 @@
         <v>9</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AV8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX8" t="n">
         <v>15</v>
       </c>
-      <c r="AX8" t="n">
-        <v>16</v>
-      </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
         <v>13</v>
@@ -2081,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2230,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -2239,22 +2306,22 @@
         <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2266,13 +2333,13 @@
         <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
         <v>9</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2430,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
         <v>27</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2576,13 +2643,13 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2615,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2627,19 +2694,19 @@
         <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,13 +2825,13 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2773,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>26</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>7</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -2850,67 +2917,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N14" t="n">
         <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T14" t="n">
         <v>41.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="X14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.6</v>
@@ -2919,19 +2986,19 @@
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2940,13 +3007,13 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2961,40 +3028,40 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3128,10 +3195,10 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3176,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.434</v>
+        <v>0.438</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R16" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
@@ -3277,28 +3344,28 @@
         <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
         <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>94</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>4</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,16 +3404,16 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,19 +3422,19 @@
         <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.667</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,40 +3481,40 @@
         <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.491</v>
+        <v>0.489</v>
       </c>
       <c r="L17" t="n">
         <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
         <v>0.395</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="S17" t="n">
-        <v>30.6</v>
+        <v>31</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>39.1</v>
       </c>
       <c r="U17" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V17" t="n">
         <v>13.8</v>
@@ -3462,25 +3529,25 @@
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>19.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,22 +3574,22 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>12</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,16 +3598,16 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>22</v>
@@ -3677,10 +3744,10 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>16</v>
@@ -3722,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.457</v>
+        <v>0.471</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,7 +3845,7 @@
         <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K19" t="n">
         <v>0.429</v>
@@ -3787,55 +3854,55 @@
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.297</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
         <v>0.738</v>
       </c>
       <c r="R19" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S19" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T19" t="n">
         <v>45.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA19" t="n">
         <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3874,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3886,25 +3953,25 @@
         <v>11</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4032,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4044,7 +4111,7 @@
         <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4074,19 +4141,19 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4220,10 +4287,10 @@
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4247,10 +4314,10 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4265,19 +4332,19 @@
         <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>10</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>8</v>
       </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>37.5</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.478</v>
@@ -4333,19 +4400,19 @@
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.389</v>
+        <v>0.392</v>
       </c>
       <c r="O22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.837</v>
+        <v>0.839</v>
       </c>
       <c r="R22" t="n">
         <v>10.4</v>
@@ -4354,13 +4421,13 @@
         <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
@@ -4369,7 +4436,7 @@
         <v>7.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z22" t="n">
         <v>20.2</v>
@@ -4378,13 +4445,13 @@
         <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4426,28 +4493,28 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,19 +4573,19 @@
         <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O23" t="n">
         <v>12.9</v>
@@ -4533,10 +4600,10 @@
         <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
         <v>23</v>
@@ -4554,28 +4621,28 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.6</v>
+        <v>-2.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
@@ -4584,19 +4651,19 @@
         <v>7</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>19</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4608,13 +4675,13 @@
         <v>8</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
@@ -4629,19 +4696,19 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4763,22 +4830,22 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
         <v>7</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J25" t="n">
         <v>84.3</v>
@@ -4876,40 +4943,40 @@
         <v>0.445</v>
       </c>
       <c r="L25" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="P25" t="n">
         <v>19.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T25" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X25" t="n">
         <v>5.8</v>
@@ -4924,19 +4991,19 @@
         <v>18.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4945,19 +5012,19 @@
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>27</v>
@@ -4969,25 +5036,25 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
@@ -5002,10 +5069,10 @@
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>13</v>
@@ -5124,10 +5191,10 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5151,22 +5218,22 @@
         <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>22</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW26" t="n">
         <v>19</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
         <v>19.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P27" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.768</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
         <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>14.5</v>
@@ -5276,34 +5343,34 @@
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
         <v>6.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.7</v>
+        <v>97</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
@@ -5312,31 +5379,31 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>13</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>11</v>
-      </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>29</v>
@@ -5354,16 +5421,16 @@
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5518,13 +5585,13 @@
         <v>3</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5670,7 +5737,7 @@
         <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
@@ -5679,10 +5746,10 @@
         <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
@@ -5691,10 +5758,10 @@
         <v>24</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.525</v>
+        <v>0.513</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,7 +5847,7 @@
         <v>36.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.446</v>
@@ -5792,16 +5859,16 @@
         <v>17.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O30" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
         <v>12.6</v>
@@ -5813,7 +5880,7 @@
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
@@ -5822,31 +5889,31 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
@@ -5858,13 +5925,13 @@
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5891,16 +5958,16 @@
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
@@ -5944,82 +6011,82 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.176</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="J31" t="n">
         <v>83.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.414</v>
+        <v>0.409</v>
       </c>
       <c r="L31" t="n">
         <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.326</v>
+        <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="P31" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
         <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.4</v>
+        <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -6028,7 +6095,7 @@
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6061,37 +6128,37 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX31" t="n">
         <v>22</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA31" t="n">
         <v>23</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-14-2012-13</t>
+          <t>2013-01-14</t>
         </is>
       </c>
     </row>
